--- a/Centralities.xlsx
+++ b/Centralities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="179">
   <si>
     <t>Centralities</t>
   </si>
@@ -689,11 +689,6 @@
 other nodes in the network that connect to the node under consideration through these immediate neighbors</t>
   </si>
   <si>
-    <t>Kleinberg's hub and authority scores. The authority scores of the vertices are defined as the principal eigenvector of t(A)*A, where A is the adjacency matrix of the 
-graph. The hub scores of the vertices are defined as the principal eigenvector of A*t(A), where A is the adjacency matrix of the graph. 
-Obviously, for undirected matrices the adjacency matrix is symmetric and the two scores are the same.</t>
-  </si>
-  <si>
     <t>connected and loop free network.</t>
   </si>
   <si>
@@ -1094,13 +1089,22 @@
   </si>
   <si>
     <t>https://www.centiserver.org/centrality/Topological_Coefficient/</t>
+  </si>
+  <si>
+    <t>Kleinberg's authority and hubscore centrality scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleinberg's hub and authority scores. The authority scores of the vertices are defined as the principal eigenvector of t(A)*A, where A is the adjacency matrix of the 
+graph. The hub scores of the vertices are defined as the principal eigenvector of A*t(A), where A is the adjacency matrix of the graph. 
+Obviously, for undirected matrices the adjacency matrix is symmetric and the two scores are the same.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1274,6 +1278,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1621,16 +1633,13 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1650,17 +1659,41 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1986,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,19 +2031,19 @@
     <col min="4" max="4" width="98.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="101.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2039,12 +2072,12 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="1"/>
@@ -2056,14 +2089,14 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="1"/>
@@ -2072,19 +2105,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="1"/>
@@ -2099,13 +2132,13 @@
       <c r="B6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="1"/>
@@ -2117,14 +2150,14 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F7" s="1"/>
@@ -2136,12 +2169,12 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="1"/>
@@ -2149,20 +2182,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="1"/>
@@ -2170,20 +2203,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F10" s="1"/>
@@ -2192,17 +2225,17 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F11" s="1"/>
@@ -2221,7 +2254,7 @@
         <v>82</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="1"/>
@@ -2230,15 +2263,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="1"/>
@@ -2247,7 +2280,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2255,7 +2288,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>98</v>
       </c>
       <c r="F14" s="1"/>
@@ -2264,16 +2297,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="8" t="s">
-        <v>146</v>
+      <c r="E15" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3" t="s">
@@ -2281,17 +2314,17 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F16" s="1"/>
@@ -2303,11 +2336,11 @@
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F17" s="1"/>
@@ -2316,20 +2349,20 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>115</v>
+      <c r="E18" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="3" t="s">
@@ -2345,8 +2378,8 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="8" t="s">
-        <v>117</v>
+      <c r="E19" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="3" t="s">
@@ -2354,16 +2387,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="8" t="s">
-        <v>118</v>
+      <c r="E20" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
@@ -2374,15 +2407,15 @@
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="8" t="s">
-        <v>116</v>
+      <c r="E21" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
@@ -2390,63 +2423,61 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>119</v>
+      <c r="B24" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="8" t="s">
-        <v>127</v>
+      <c r="E24" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>120</v>
+      <c r="B25" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="8" t="s">
-        <v>126</v>
+      <c r="E25" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="3" t="s">
@@ -2454,16 +2485,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>121</v>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="8" t="s">
-        <v>124</v>
+      <c r="E26" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="3" t="s">
@@ -2471,18 +2502,18 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="8" t="s">
-        <v>125</v>
+      <c r="E27" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="3" t="s">
@@ -2490,16 +2521,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>128</v>
+      <c r="B28" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="8" t="s">
-        <v>129</v>
+      <c r="E28" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="3" t="s">
@@ -2517,15 +2548,15 @@
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="3" t="s">
@@ -2533,17 +2564,17 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F31" s="1"/>
@@ -2556,12 +2587,12 @@
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="8" t="s">
-        <v>142</v>
+      <c r="E32" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="3" t="s">
@@ -2569,16 +2600,16 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>143</v>
+      <c r="B33" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="8" t="s">
-        <v>130</v>
+      <c r="E33" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="3" t="s">
@@ -2586,38 +2617,38 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>144</v>
+      <c r="B34" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="8" t="s">
-        <v>147</v>
+      <c r="E34" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>150</v>
+      <c r="B35" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="8" t="s">
-        <v>131</v>
+      <c r="E35" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>66</v>
@@ -2627,13 +2658,13 @@
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>152</v>
+      <c r="B36" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="8" t="s">
-        <v>153</v>
+      <c r="E36" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="3" t="s">
@@ -2644,13 +2675,13 @@
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>154</v>
+      <c r="B37" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="8" t="s">
-        <v>132</v>
+      <c r="E37" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="3" t="s">
@@ -2658,16 +2689,16 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>155</v>
+      <c r="B38" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="8" t="s">
-        <v>133</v>
+      <c r="E38" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="3"/>
@@ -2676,13 +2707,13 @@
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>156</v>
+      <c r="B39" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="8" t="s">
-        <v>157</v>
+      <c r="E39" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="3" t="s">
@@ -2694,12 +2725,12 @@
         <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="8" t="s">
-        <v>148</v>
+      <c r="E40" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="3" t="s">
@@ -2716,14 +2747,14 @@
         <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="8" t="s">
-        <v>149</v>
+      <c r="E42" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="3" t="s">
@@ -2741,18 +2772,18 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>163</v>
+      <c r="B44" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="8" t="s">
-        <v>134</v>
+      <c r="E44" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="3" t="s">
@@ -2760,19 +2791,19 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>159</v>
+      <c r="B45" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="8" t="s">
-        <v>161</v>
+      <c r="E45" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>66</v>
@@ -2784,16 +2815,16 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>164</v>
+      <c r="B47" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="8" t="s">
-        <v>135</v>
+      <c r="E47" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="3" t="s">
@@ -2805,14 +2836,14 @@
         <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="1"/>
+      <c r="E48" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="3" t="s">
@@ -2833,13 +2864,13 @@
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>168</v>
+      <c r="B50" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="8" t="s">
-        <v>136</v>
+      <c r="E50" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="3" t="s">
@@ -2847,16 +2878,16 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>169</v>
+      <c r="B51" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="8" t="s">
-        <v>170</v>
+      <c r="E51" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="3" t="s">
@@ -2867,13 +2898,13 @@
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>171</v>
+      <c r="B52" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="8" t="s">
-        <v>172</v>
+      <c r="E52" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="3" t="s">
@@ -2889,15 +2920,15 @@
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -2923,16 +2954,16 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="8" t="s">
-        <v>174</v>
+      <c r="E56" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="3" t="s">
@@ -2940,18 +2971,18 @@
       </c>
     </row>
     <row r="57" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="1"/>
+      <c r="E57" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="3" t="s">
@@ -2978,7 +3009,6 @@
         <v>108</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="3"/>
     </row>
@@ -3529,7 +3559,7 @@
       <c r="A106" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="B22:B23"/>
@@ -3538,6 +3568,7 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
